--- a/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251115_201325.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251115_201325.xlsx
@@ -3585,7 +3585,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
